--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_0_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_0_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28094.04187842192</v>
+        <v>5621748.024731232</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28094.04187842192</v>
+        <v>5621748.024731232</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98333.88625764396</v>
+        <v>6866397.935929356</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98333.88625764396</v>
+        <v>6866397.935929356</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68405.88933490102</v>
+        <v>59358165.61854965</v>
       </c>
     </row>
   </sheetData>
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>170.8426985691799</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>323.662110682525</v>
       </c>
       <c r="H3" t="n">
-        <v>312.1045333535693</v>
+        <v>155.7185780545098</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X3" t="n">
-        <v>419.8627394453875</v>
+        <v>19.86273944538755</v>
       </c>
       <c r="Y3" t="n">
         <v>399.3913927661343</v>
@@ -904,10 +904,10 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C5" t="n">
-        <v>449.4745782429939</v>
+        <v>449.4745782429931</v>
       </c>
       <c r="D5" t="n">
-        <v>410.3391557398489</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E5" t="n">
         <v>404.3632896068686</v>
@@ -986,22 +986,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>101.0488986109243</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>323.662110682525</v>
+        <v>79.38068873703504</v>
       </c>
       <c r="H6" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07368705015369714</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V6" t="n">
         <v>414.5106671915202</v>
@@ -1046,7 +1046,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X6" t="n">
-        <v>19.86273944538755</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y6" t="n">
         <v>399.3913927661343</v>
@@ -1141,7 +1141,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C8" t="n">
-        <v>449.4745782429931</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D8" t="n">
         <v>410.3391557398498</v>
@@ -1217,25 +1217,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C9" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>215.2634037022628</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>158.1458257046799</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07368705015369714</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V9" t="n">
-        <v>14.51066719152016</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W9" t="n">
         <v>432.3731429098285</v>
@@ -1286,7 +1286,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y9" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1435,7 +1435,7 @@
         <v>648.9106809154903</v>
       </c>
       <c r="V11" t="n">
-        <v>629.8510241668239</v>
+        <v>629.851024166823</v>
       </c>
       <c r="W11" t="n">
         <v>638.3734759809475</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15.80095749975794</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H12" t="n">
         <v>312.1045333535693</v>
@@ -1514,7 +1514,7 @@
         <v>400.0736870501537</v>
       </c>
       <c r="V12" t="n">
-        <v>414.5106671915202</v>
+        <v>148.5339734331669</v>
       </c>
       <c r="W12" t="n">
         <v>432.3731429098285</v>
@@ -1681,7 +1681,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y14" t="n">
-        <v>511.3174326828054</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C15" t="n">
-        <v>9.267565939776008</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H15" t="n">
         <v>312.1045333535693</v>
@@ -1757,7 +1757,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X15" t="n">
-        <v>419.8627394453875</v>
+        <v>60.54788039418882</v>
       </c>
       <c r="Y15" t="n">
         <v>399.3913927661343</v>
@@ -1864,7 +1864,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>399.8746768730113</v>
+        <v>399.8746768730119</v>
       </c>
       <c r="H17" t="n">
         <v>368.2460042948564</v>
@@ -1931,16 +1931,16 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C18" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>60.5478803941886</v>
       </c>
       <c r="G18" t="n">
         <v>323.662110682525</v>
@@ -1988,7 +1988,7 @@
         <v>400.0736870501537</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
         <v>432.3731429098285</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>165.4123410086211</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="19">
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>86.11672794030834</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C20" t="n">
-        <v>449.4745782429939</v>
+        <v>449.4745782429931</v>
       </c>
       <c r="D20" t="n">
         <v>410.3391557398498</v>
@@ -2165,19 +2165,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>210.3326553170708</v>
+        <v>97.08026756473525</v>
       </c>
       <c r="C21" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>323.662110682525</v>
@@ -2231,10 +2231,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="22">
@@ -2402,13 +2402,13 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>170.8426985691799</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>86.11672794030834</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2639,28 +2639,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>136.6821555970375</v>
       </c>
       <c r="G27" t="n">
         <v>323.662110682525</v>
       </c>
       <c r="H27" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y27" t="n">
-        <v>81.96099313934948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2809,10 +2809,10 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287080119</v>
+        <v>404.8896287080112</v>
       </c>
       <c r="G29" t="n">
-        <v>399.8746768730113</v>
+        <v>399.8746768730119</v>
       </c>
       <c r="H29" t="n">
         <v>368.2460042948564</v>
@@ -2897,7 +2897,7 @@
         <v>312.1045333535693</v>
       </c>
       <c r="I30" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2942,10 +2942,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X30" t="n">
-        <v>84.00452459499613</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y30" t="n">
-        <v>399.3913927661343</v>
+        <v>209.134178889795</v>
       </c>
     </row>
     <row r="31">
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>86.11672794030834</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3179,10 +3179,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X33" t="n">
-        <v>206.148881368241</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y33" t="n">
-        <v>399.3913927661343</v>
+        <v>222.2964044376116</v>
       </c>
     </row>
     <row r="34">
@@ -3356,7 +3356,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>323.662110682525</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I36" t="n">
         <v>145.6010009740521</v>
@@ -3416,10 +3416,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X36" t="n">
-        <v>396.1090579485651</v>
+        <v>135.4582304634276</v>
       </c>
       <c r="Y36" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3456,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8896287080121</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
         <v>399.8746768730119</v>
       </c>
       <c r="H38" t="n">
-        <v>368.2460042948564</v>
+        <v>368.2460042948566</v>
       </c>
       <c r="I38" t="n">
         <v>0.3935447342857401</v>
@@ -3587,10 +3587,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C39" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3602,13 +3602,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H39" t="n">
-        <v>312.1045333535693</v>
+        <v>98.39067527642261</v>
       </c>
       <c r="I39" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y39" t="n">
-        <v>387.1952885982677</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="40">
@@ -3757,7 +3757,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8896287080121</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
         <v>399.8746768730119</v>
@@ -3824,13 +3824,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>348.9038082776527</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3839,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H42" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
-        <v>419.8627394453875</v>
+        <v>170.3157278241073</v>
       </c>
       <c r="Y42" t="n">
         <v>399.3913927661343</v>
@@ -3930,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>404.3632896068688</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4048,7 +4048,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>592.2818334606677</v>
+        <v>592.2818334606678</v>
       </c>
       <c r="Y44" t="n">
         <v>511.3174326828064</v>
@@ -4067,7 +4067,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
-        <v>98.83936071480359</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>323.662110682525</v>
+        <v>2.638731951941056</v>
       </c>
       <c r="H45" t="n">
         <v>312.1045333535693</v>
@@ -4127,7 +4127,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4167,13 +4167,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4336,10 +4336,10 @@
         <v>142.72</v>
       </c>
       <c r="J2" t="n">
-        <v>142.72</v>
+        <v>534.0291130376557</v>
       </c>
       <c r="K2" t="n">
-        <v>142.72</v>
+        <v>534.0291130376557</v>
       </c>
       <c r="L2" t="n">
         <v>782.3842903705656</v>
@@ -4391,22 +4391,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>957.4769117224993</v>
+        <v>973.0763494534824</v>
       </c>
       <c r="C3" t="n">
-        <v>784.9085293293882</v>
+        <v>973.0763494534824</v>
       </c>
       <c r="D3" t="n">
-        <v>784.9085293293882</v>
+        <v>973.0763494534824</v>
       </c>
       <c r="E3" t="n">
-        <v>784.9085293293882</v>
+        <v>626.9429179161968</v>
       </c>
       <c r="F3" t="n">
-        <v>784.9085293293882</v>
+        <v>626.9429179161968</v>
       </c>
       <c r="G3" t="n">
-        <v>457.9771043975447</v>
+        <v>300.0114929843534</v>
       </c>
       <c r="H3" t="n">
         <v>142.72</v>
@@ -4457,10 +4457,10 @@
         <v>1785.006338198784</v>
       </c>
       <c r="X3" t="n">
-        <v>1360.902560981221</v>
+        <v>1764.942965021625</v>
       </c>
       <c r="Y3" t="n">
-        <v>957.4769117224993</v>
+        <v>1361.517315762903</v>
       </c>
     </row>
     <row r="4">
@@ -4497,7 +4497,7 @@
         <v>229.7065938790993</v>
       </c>
       <c r="K4" t="n">
-        <v>229.7065938790993</v>
+        <v>402.0116649291751</v>
       </c>
       <c r="L4" t="n">
         <v>402.0116649291751</v>
@@ -4552,7 +4552,7 @@
         <v>2604.922907272604</v>
       </c>
       <c r="C5" t="n">
-        <v>2150.90818177463</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D5" t="n">
         <v>1736.424186077813</v>
@@ -4573,16 +4573,16 @@
         <v>142.72</v>
       </c>
       <c r="J5" t="n">
-        <v>142.72</v>
+        <v>534.0291130376557</v>
       </c>
       <c r="K5" t="n">
-        <v>142.72</v>
+        <v>534.0291130376557</v>
       </c>
       <c r="L5" t="n">
-        <v>1656.340766549643</v>
+        <v>782.3842903705656</v>
       </c>
       <c r="M5" t="n">
-        <v>2654.053845767352</v>
+        <v>1968.182786802632</v>
       </c>
       <c r="N5" t="n">
         <v>3267.274165542115</v>
@@ -4628,25 +4628,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1377.116753493887</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C6" t="n">
-        <v>1377.116753493887</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="D6" t="n">
-        <v>1275.047158937397</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="E6" t="n">
-        <v>1275.047158937397</v>
+        <v>222.902513875793</v>
       </c>
       <c r="F6" t="n">
-        <v>931.9802474849964</v>
+        <v>222.902513875793</v>
       </c>
       <c r="G6" t="n">
-        <v>605.0488225531529</v>
+        <v>142.72</v>
       </c>
       <c r="H6" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I6" t="n">
         <v>142.72</v>
@@ -4685,19 +4685,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U6" t="n">
-        <v>3044.484934260753</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V6" t="n">
-        <v>2625.787290632954</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W6" t="n">
-        <v>2189.046742239188</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X6" t="n">
-        <v>2168.983369062029</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y6" t="n">
-        <v>1765.557719803307</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="7">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2604.922907272604</v>
+        <v>2604.922907272605</v>
       </c>
       <c r="C8" t="n">
         <v>2150.908181774631</v>
@@ -4810,52 +4810,52 @@
         <v>142.72</v>
       </c>
       <c r="J8" t="n">
-        <v>142.72</v>
+        <v>534.0291130376557</v>
       </c>
       <c r="K8" t="n">
-        <v>142.72</v>
+        <v>1225.461353485375</v>
       </c>
       <c r="L8" t="n">
-        <v>782.3842903705656</v>
+        <v>1832.052625465396</v>
       </c>
       <c r="M8" t="n">
-        <v>1968.182786802632</v>
+        <v>1968.182786802633</v>
       </c>
       <c r="N8" t="n">
-        <v>3267.274165542115</v>
+        <v>3267.274165542116</v>
       </c>
       <c r="O8" t="n">
-        <v>4867.965301531017</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P8" t="n">
-        <v>6282.306354802172</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q8" t="n">
         <v>7136</v>
       </c>
       <c r="R8" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S8" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T8" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U8" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V8" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W8" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X8" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y8" t="n">
-        <v>3091.790900157022</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="9">
@@ -4865,22 +4865,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1765.557719803307</v>
+        <v>972.4615946718</v>
       </c>
       <c r="C9" t="n">
-        <v>1400.810333494702</v>
+        <v>972.4615946718</v>
       </c>
       <c r="D9" t="n">
-        <v>1049.358124507124</v>
+        <v>972.4615946718</v>
       </c>
       <c r="E9" t="n">
-        <v>703.2246929698381</v>
+        <v>972.4615946718</v>
       </c>
       <c r="F9" t="n">
-        <v>360.1577815174372</v>
+        <v>629.394683219399</v>
       </c>
       <c r="G9" t="n">
-        <v>142.72</v>
+        <v>302.4632582875555</v>
       </c>
       <c r="H9" t="n">
         <v>142.72</v>
@@ -4922,19 +4922,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U9" t="n">
-        <v>3044.484934260753</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V9" t="n">
-        <v>3029.827694673359</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W9" t="n">
-        <v>2593.087146279592</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X9" t="n">
-        <v>2168.983369062029</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y9" t="n">
-        <v>1765.557719803307</v>
+        <v>1360.902560981221</v>
       </c>
     </row>
     <row r="10">
@@ -4971,10 +4971,10 @@
         <v>229.7065938790993</v>
       </c>
       <c r="K10" t="n">
-        <v>402.0116649291751</v>
+        <v>540.3948627441613</v>
       </c>
       <c r="L10" t="n">
-        <v>402.0116649291751</v>
+        <v>540.3948627441613</v>
       </c>
       <c r="M10" t="n">
         <v>552.8667988790578</v>
@@ -5053,34 +5053,34 @@
         <v>142.72</v>
       </c>
       <c r="L11" t="n">
-        <v>1656.340766549643</v>
+        <v>782.3842903705656</v>
       </c>
       <c r="M11" t="n">
-        <v>1968.182786802633</v>
+        <v>1968.182786802632</v>
       </c>
       <c r="N11" t="n">
-        <v>3267.274165542116</v>
+        <v>3267.274165542115</v>
       </c>
       <c r="O11" t="n">
-        <v>4867.965301531018</v>
+        <v>4867.965301531017</v>
       </c>
       <c r="P11" t="n">
-        <v>6282.306354802173</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q11" t="n">
         <v>7136</v>
       </c>
       <c r="R11" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365303</v>
       </c>
       <c r="S11" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248433</v>
       </c>
       <c r="T11" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527463</v>
       </c>
       <c r="U11" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269392</v>
       </c>
       <c r="V11" t="n">
         <v>4851.359326545328</v>
@@ -5102,19 +5102,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>972.4615946718</v>
+        <v>1629.56588800986</v>
       </c>
       <c r="C12" t="n">
-        <v>972.4615946718</v>
+        <v>1629.56588800986</v>
       </c>
       <c r="D12" t="n">
-        <v>621.0093856842216</v>
+        <v>1278.113679022282</v>
       </c>
       <c r="E12" t="n">
-        <v>621.0093856842216</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="F12" t="n">
-        <v>621.0093856842216</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="G12" t="n">
         <v>605.0488225531529</v>
@@ -5162,16 +5162,16 @@
         <v>2640.444530220348</v>
       </c>
       <c r="V12" t="n">
-        <v>2221.74688659255</v>
+        <v>2490.41021362119</v>
       </c>
       <c r="W12" t="n">
-        <v>1785.006338198784</v>
+        <v>2053.669665227424</v>
       </c>
       <c r="X12" t="n">
-        <v>1360.902560981221</v>
+        <v>1629.56588800986</v>
       </c>
       <c r="Y12" t="n">
-        <v>1360.902560981221</v>
+        <v>1629.56588800986</v>
       </c>
     </row>
     <row r="13">
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2604.922907272605</v>
+        <v>2604.922907272603</v>
       </c>
       <c r="C14" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.90818177463</v>
       </c>
       <c r="D14" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077812</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798147</v>
       </c>
       <c r="F14" t="n">
-        <v>918.9969958607618</v>
+        <v>918.9969958607616</v>
       </c>
       <c r="G14" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375173</v>
       </c>
       <c r="H14" t="n">
         <v>143.117519933622</v>
@@ -5314,7 +5314,7 @@
         <v>6718.471233248433</v>
       </c>
       <c r="T14" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527462</v>
       </c>
       <c r="U14" t="n">
         <v>5487.572482269392</v>
@@ -5329,7 +5329,7 @@
         <v>3608.27315539218</v>
       </c>
       <c r="Y14" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157022</v>
       </c>
     </row>
     <row r="15">
@@ -5339,19 +5339,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.4769117224993</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="C15" t="n">
-        <v>948.1157340055538</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="D15" t="n">
-        <v>948.1157340055538</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="E15" t="n">
-        <v>948.1157340055538</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="F15" t="n">
-        <v>605.0488225531529</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="G15" t="n">
         <v>605.0488225531529</v>
@@ -5405,10 +5405,10 @@
         <v>1785.006338198784</v>
       </c>
       <c r="X15" t="n">
-        <v>1360.902560981221</v>
+        <v>1723.846863053139</v>
       </c>
       <c r="Y15" t="n">
-        <v>957.4769117224993</v>
+        <v>1320.421213794417</v>
       </c>
     </row>
     <row r="16">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2604.922907272604</v>
+        <v>2604.922907272603</v>
       </c>
       <c r="C17" t="n">
         <v>2150.90818177463</v>
@@ -5509,31 +5509,31 @@
         <v>1327.976418798147</v>
       </c>
       <c r="F17" t="n">
-        <v>918.9969958607611</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G17" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375173</v>
       </c>
       <c r="H17" t="n">
-        <v>143.117519933622</v>
+        <v>143.1175199336219</v>
       </c>
       <c r="I17" t="n">
         <v>142.72</v>
       </c>
       <c r="J17" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K17" t="n">
-        <v>1732.689961986976</v>
+        <v>1341.38084894932</v>
       </c>
       <c r="L17" t="n">
-        <v>3246.310728536619</v>
+        <v>2855.001615498963</v>
       </c>
       <c r="M17" t="n">
-        <v>3246.310728536619</v>
+        <v>3365.850444227899</v>
       </c>
       <c r="N17" t="n">
-        <v>3267.274165542115</v>
+        <v>3365.850444227899</v>
       </c>
       <c r="O17" t="n">
         <v>4867.965301531017</v>
@@ -5576,16 +5576,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1648.17984278118</v>
+        <v>993.1397226306415</v>
       </c>
       <c r="C18" t="n">
-        <v>1283.432456472575</v>
+        <v>993.1397226306415</v>
       </c>
       <c r="D18" t="n">
-        <v>931.9802474849964</v>
+        <v>993.1397226306415</v>
       </c>
       <c r="E18" t="n">
-        <v>931.9802474849964</v>
+        <v>993.1397226306415</v>
       </c>
       <c r="F18" t="n">
         <v>931.9802474849964</v>
@@ -5636,16 +5636,16 @@
         <v>2640.444530220348</v>
       </c>
       <c r="V18" t="n">
-        <v>2640.444530220348</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W18" t="n">
-        <v>2203.703981826582</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X18" t="n">
-        <v>2203.703981826582</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="Y18" t="n">
-        <v>2036.620809090601</v>
+        <v>1381.580688940062</v>
       </c>
     </row>
     <row r="19">
@@ -5682,7 +5682,7 @@
         <v>229.7065938790993</v>
       </c>
       <c r="K19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="L19" t="n">
         <v>142.72</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2604.922907272603</v>
+        <v>2604.922907272604</v>
       </c>
       <c r="C20" t="n">
-        <v>2150.90818177463</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D20" t="n">
-        <v>1736.424186077812</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E20" t="n">
-        <v>1327.976418798147</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F20" t="n">
-        <v>918.9969958607616</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G20" t="n">
-        <v>515.0831808375173</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H20" t="n">
         <v>143.117519933622</v>
@@ -5761,16 +5761,16 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K20" t="n">
-        <v>2058.933492682376</v>
+        <v>1140.433079217709</v>
       </c>
       <c r="L20" t="n">
-        <v>3572.554259232019</v>
+        <v>2654.053845767352</v>
       </c>
       <c r="M20" t="n">
-        <v>4758.352755664085</v>
+        <v>2654.053845767352</v>
       </c>
       <c r="N20" t="n">
-        <v>4758.352755664085</v>
+        <v>3267.274165542115</v>
       </c>
       <c r="O20" t="n">
         <v>4867.965301531017</v>
@@ -5788,7 +5788,7 @@
         <v>6718.471233248433</v>
       </c>
       <c r="T20" t="n">
-        <v>6143.037816527462</v>
+        <v>6143.037816527463</v>
       </c>
       <c r="U20" t="n">
         <v>5487.572482269392</v>
@@ -5813,16 +5813,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1991.246754233581</v>
+        <v>1278.113679022282</v>
       </c>
       <c r="C21" t="n">
-        <v>1626.499367924976</v>
+        <v>1278.113679022282</v>
       </c>
       <c r="D21" t="n">
-        <v>1275.047158937397</v>
+        <v>1278.113679022282</v>
       </c>
       <c r="E21" t="n">
-        <v>1275.047158937397</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="F21" t="n">
         <v>931.9802474849964</v>
@@ -5879,10 +5879,10 @@
         <v>2203.703981826582</v>
       </c>
       <c r="X21" t="n">
-        <v>2203.703981826582</v>
+        <v>1779.600204609019</v>
       </c>
       <c r="Y21" t="n">
-        <v>2203.703981826582</v>
+        <v>1376.174555350297</v>
       </c>
     </row>
     <row r="22">
@@ -5995,22 +5995,22 @@
         <v>142.72</v>
       </c>
       <c r="J23" t="n">
-        <v>434.2709545127605</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K23" t="n">
-        <v>1632.931803462081</v>
+        <v>2058.933492682376</v>
       </c>
       <c r="L23" t="n">
-        <v>3146.552570011724</v>
+        <v>3572.554259232019</v>
       </c>
       <c r="M23" t="n">
-        <v>3914.922757509061</v>
+        <v>3708.684420569256</v>
       </c>
       <c r="N23" t="n">
-        <v>3914.922757509061</v>
+        <v>3922.079011044839</v>
       </c>
       <c r="O23" t="n">
-        <v>4867.965301531018</v>
+        <v>5522.770147033742</v>
       </c>
       <c r="P23" t="n">
         <v>6282.306354802173</v>
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>784.9085293293882</v>
+        <v>957.4769117224993</v>
       </c>
       <c r="C24" t="n">
-        <v>784.9085293293882</v>
+        <v>957.4769117224993</v>
       </c>
       <c r="D24" t="n">
         <v>784.9085293293882</v>
@@ -6156,7 +6156,7 @@
         <v>229.7065938790993</v>
       </c>
       <c r="K25" t="n">
-        <v>142.72</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="L25" t="n">
         <v>142.72</v>
@@ -6223,19 +6223,19 @@
         <v>918.996995860762</v>
       </c>
       <c r="G26" t="n">
-        <v>515.0831808375173</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H26" t="n">
-        <v>143.1175199336219</v>
+        <v>143.117519933622</v>
       </c>
       <c r="I26" t="n">
         <v>142.72</v>
       </c>
       <c r="J26" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K26" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="L26" t="n">
         <v>782.3842903705656</v>
@@ -6287,25 +6287,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1278.113679022282</v>
+        <v>972.4615946718</v>
       </c>
       <c r="C27" t="n">
-        <v>1278.113679022282</v>
+        <v>607.7142083631945</v>
       </c>
       <c r="D27" t="n">
-        <v>1278.113679022282</v>
+        <v>607.7142083631945</v>
       </c>
       <c r="E27" t="n">
-        <v>931.9802474849964</v>
+        <v>607.7142083631945</v>
       </c>
       <c r="F27" t="n">
-        <v>931.9802474849964</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="G27" t="n">
-        <v>605.0488225531529</v>
+        <v>142.72</v>
       </c>
       <c r="H27" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I27" t="n">
         <v>142.72</v>
@@ -6356,7 +6356,7 @@
         <v>1360.902560981221</v>
       </c>
       <c r="Y27" t="n">
-        <v>1278.113679022282</v>
+        <v>1360.902560981221</v>
       </c>
     </row>
     <row r="28">
@@ -6457,7 +6457,7 @@
         <v>1327.976418798147</v>
       </c>
       <c r="F29" t="n">
-        <v>918.9969958607611</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G29" t="n">
         <v>515.0831808375174</v>
@@ -6524,25 +6524,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1296.727633793602</v>
+        <v>1149.655915637994</v>
       </c>
       <c r="C30" t="n">
-        <v>931.9802474849964</v>
+        <v>784.9085293293882</v>
       </c>
       <c r="D30" t="n">
-        <v>931.9802474849964</v>
+        <v>784.9085293293882</v>
       </c>
       <c r="E30" t="n">
-        <v>931.9802474849964</v>
+        <v>784.9085293293882</v>
       </c>
       <c r="F30" t="n">
-        <v>931.9802474849964</v>
+        <v>784.9085293293882</v>
       </c>
       <c r="G30" t="n">
-        <v>605.0488225531529</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="H30" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I30" t="n">
         <v>142.72</v>
@@ -6590,10 +6590,10 @@
         <v>1785.006338198784</v>
       </c>
       <c r="X30" t="n">
-        <v>1700.153283052323</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y30" t="n">
-        <v>1296.727633793602</v>
+        <v>1149.655915637994</v>
       </c>
     </row>
     <row r="31">
@@ -6630,7 +6630,7 @@
         <v>229.7065938790993</v>
       </c>
       <c r="K31" t="n">
-        <v>142.72</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="L31" t="n">
         <v>142.72</v>
@@ -6682,19 +6682,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2604.922907272603</v>
+        <v>2604.922907272605</v>
       </c>
       <c r="C32" t="n">
-        <v>2150.90818177463</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D32" t="n">
-        <v>1736.424186077812</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E32" t="n">
-        <v>1327.976418798147</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F32" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G32" t="n">
         <v>515.0831808375174</v>
@@ -6706,52 +6706,52 @@
         <v>142.72</v>
       </c>
       <c r="J32" t="n">
-        <v>142.72</v>
+        <v>782.3842903705665</v>
       </c>
       <c r="K32" t="n">
-        <v>142.72</v>
+        <v>782.3842903705665</v>
       </c>
       <c r="L32" t="n">
-        <v>782.3842903705656</v>
+        <v>782.3842903705665</v>
       </c>
       <c r="M32" t="n">
-        <v>1968.182786802632</v>
+        <v>1968.182786802633</v>
       </c>
       <c r="N32" t="n">
-        <v>3267.274165542115</v>
+        <v>3267.274165542116</v>
       </c>
       <c r="O32" t="n">
-        <v>4867.965301531017</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P32" t="n">
-        <v>6282.306354802172</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q32" t="n">
         <v>7136</v>
       </c>
       <c r="R32" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S32" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T32" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U32" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V32" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W32" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X32" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y32" t="n">
-        <v>3091.790900157022</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="33">
@@ -6761,10 +6761,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>784.9085293293882</v>
+        <v>1136.360738316967</v>
       </c>
       <c r="C33" t="n">
-        <v>784.9085293293882</v>
+        <v>1136.360738316967</v>
       </c>
       <c r="D33" t="n">
         <v>784.9085293293882</v>
@@ -6827,10 +6827,10 @@
         <v>1785.006338198784</v>
       </c>
       <c r="X33" t="n">
-        <v>1576.77514489753</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y33" t="n">
-        <v>1173.349495638809</v>
+        <v>1136.360738316967</v>
       </c>
     </row>
     <row r="34">
@@ -6949,7 +6949,7 @@
         <v>142.72</v>
       </c>
       <c r="L35" t="n">
-        <v>782.3842903705665</v>
+        <v>1656.340766549643</v>
       </c>
       <c r="M35" t="n">
         <v>1968.182786802633</v>
@@ -6998,22 +6998,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>981.4705293960571</v>
+        <v>1648.17984278118</v>
       </c>
       <c r="C36" t="n">
-        <v>616.7231430874517</v>
+        <v>1283.432456472575</v>
       </c>
       <c r="D36" t="n">
-        <v>616.7231430874517</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="E36" t="n">
-        <v>616.7231430874517</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="F36" t="n">
-        <v>616.7231430874517</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="G36" t="n">
-        <v>289.7917181556082</v>
+        <v>605.0488225531531</v>
       </c>
       <c r="H36" t="n">
         <v>289.7917181556082</v>
@@ -7064,10 +7064,10 @@
         <v>1785.006338198784</v>
       </c>
       <c r="X36" t="n">
-        <v>1384.896178654779</v>
+        <v>1648.17984278118</v>
       </c>
       <c r="Y36" t="n">
-        <v>981.4705293960571</v>
+        <v>1648.17984278118</v>
       </c>
     </row>
     <row r="37">
@@ -7104,7 +7104,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="L37" t="n">
         <v>142.72</v>
@@ -7168,10 +7168,10 @@
         <v>1327.976418798148</v>
       </c>
       <c r="F38" t="n">
-        <v>918.9969958607618</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G38" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375176</v>
       </c>
       <c r="H38" t="n">
         <v>143.117519933622</v>
@@ -7235,25 +7235,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>969.7962088617585</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C39" t="n">
-        <v>605.0488225531531</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="D39" t="n">
-        <v>605.0488225531531</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="E39" t="n">
-        <v>605.0488225531531</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="F39" t="n">
-        <v>605.0488225531531</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="G39" t="n">
-        <v>605.0488225531531</v>
+        <v>242.104520481235</v>
       </c>
       <c r="H39" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I39" t="n">
         <v>142.72</v>
@@ -7304,7 +7304,7 @@
         <v>1360.902560981221</v>
       </c>
       <c r="Y39" t="n">
-        <v>969.7962088617585</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="40">
@@ -7423,10 +7423,10 @@
         <v>142.72</v>
       </c>
       <c r="L41" t="n">
-        <v>782.3842903705665</v>
+        <v>1656.340766549643</v>
       </c>
       <c r="M41" t="n">
-        <v>1968.182786802633</v>
+        <v>2167.189595278579</v>
       </c>
       <c r="N41" t="n">
         <v>3267.274165542116</v>
@@ -7472,25 +7472,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.0488225531531</v>
+        <v>821.103633919422</v>
       </c>
       <c r="C42" t="n">
-        <v>605.0488225531531</v>
+        <v>821.103633919422</v>
       </c>
       <c r="D42" t="n">
-        <v>605.0488225531531</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="E42" t="n">
-        <v>605.0488225531531</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="F42" t="n">
-        <v>605.0488225531531</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="G42" t="n">
-        <v>605.0488225531531</v>
+        <v>142.72</v>
       </c>
       <c r="H42" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I42" t="n">
         <v>142.72</v>
@@ -7538,10 +7538,10 @@
         <v>1785.006338198784</v>
       </c>
       <c r="X42" t="n">
-        <v>1360.902560981221</v>
+        <v>1612.970249487565</v>
       </c>
       <c r="Y42" t="n">
-        <v>957.4769117224993</v>
+        <v>1209.544600228843</v>
       </c>
     </row>
     <row r="43">
@@ -7578,7 +7578,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="L43" t="n">
         <v>142.72</v>
@@ -7709,19 +7709,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1396.565371889363</v>
+        <v>972.4615946718</v>
       </c>
       <c r="C45" t="n">
-        <v>1031.817985580758</v>
+        <v>607.7142083631945</v>
       </c>
       <c r="D45" t="n">
-        <v>931.9802474849965</v>
+        <v>607.7142083631945</v>
       </c>
       <c r="E45" t="n">
-        <v>931.9802474849965</v>
+        <v>607.7142083631945</v>
       </c>
       <c r="F45" t="n">
-        <v>931.9802474849965</v>
+        <v>607.7142083631945</v>
       </c>
       <c r="G45" t="n">
         <v>605.0488225531531</v>
@@ -7775,10 +7775,10 @@
         <v>1785.006338198784</v>
       </c>
       <c r="X45" t="n">
-        <v>1785.006338198784</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y45" t="n">
-        <v>1785.006338198784</v>
+        <v>1360.902560981221</v>
       </c>
     </row>
     <row r="46">
@@ -7815,10 +7815,10 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K46" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="L46" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="M46" t="n">
         <v>142.72</v>
@@ -7984,13 +7984,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.40708928337847</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>1060.271045550332</v>
@@ -8221,13 +8221,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>35.04300624509033</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1060.271045550332</v>
@@ -8458,16 +8458,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04300624509033</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>204.5229877235022</v>
       </c>
       <c r="L8" t="n">
-        <v>33.40708928337847</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>1096.663422488788</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>916.1914086561842</v>
+        <v>33.40708928337847</v>
       </c>
       <c r="M11" t="n">
-        <v>177.4867261775275</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N11" t="n">
         <v>1096.663422488788</v>
@@ -8932,7 +8932,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>716.8751175230994</v>
@@ -9178,10 +9178,10 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N17" t="n">
-        <v>498.4241469642756</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O17" t="n">
         <v>1032.917105959907</v>
@@ -9409,19 +9409,19 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>916.1914086561842</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>477.2489580698352</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1032.917105959907</v>
       </c>
       <c r="P20" t="n">
         <v>870.5779326741233</v>
@@ -9643,7 +9643,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
         <v>716.8751175230994</v>
@@ -9652,7 +9652,7 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M23" t="n">
-        <v>638.6262890506067</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>1032.917105959907</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>209.1588968127859</v>
       </c>
       <c r="Q23" t="n">
         <v>615.8520732695737</v>
@@ -9880,13 +9880,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>33.40708928337847</v>
       </c>
       <c r="M26" t="n">
         <v>1060.271045550332</v>
@@ -10117,7 +10117,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>35.04300624509033</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>33.40708928337847</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1060.271045550332</v>
@@ -10591,16 +10591,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>33.40708928337938</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M35" t="n">
-        <v>1060.271045550332</v>
+        <v>177.4867261775275</v>
       </c>
       <c r="N35" t="n">
         <v>1096.663422488788</v>
@@ -10828,7 +10828,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>33.40708928337938</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M41" t="n">
         <v>1060.271045550332</v>
@@ -23342,7 +23342,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C12" t="n">
         <v>361.0999124455193</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G12" t="n">
-        <v>307.8611531827671</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>265.9766937583532</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23579,10 +23579,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>351.8323465057433</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D15" t="n">
         <v>347.9376868977026</v>
@@ -23591,10 +23591,10 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G15" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23645,7 +23645,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>359.3148590511987</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E18" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F18" t="n">
-        <v>339.6362423378769</v>
+        <v>279.0883619436883</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23885,7 +23885,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y18" t="n">
-        <v>233.9790517575132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23922,10 +23922,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05673785255835639</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L19" t="n">
-        <v>164.6127396470317</v>
+        <v>78.49601170672339</v>
       </c>
       <c r="M19" t="n">
         <v>247.6210768183003</v>
@@ -24053,19 +24053,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>174.2239013292558</v>
+        <v>287.4762890815913</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24119,10 +24119,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>419.8627394453875</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24290,13 +24290,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>213.7138580771467</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C24" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D24" t="n">
-        <v>347.9376868977026</v>
+        <v>177.0949883285227</v>
       </c>
       <c r="E24" t="n">
         <v>342.6720972219126</v>
@@ -24396,10 +24396,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05673785255835639</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L25" t="n">
-        <v>164.6127396470317</v>
+        <v>78.49601170672339</v>
       </c>
       <c r="M25" t="n">
         <v>247.6210768183003</v>
@@ -24527,28 +24527,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
-        <v>339.6362423378769</v>
+        <v>202.9540867408394</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>317.4303996267848</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="28">
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24830,10 +24830,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>335.8582148503914</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.2572138763393</v>
       </c>
     </row>
     <row r="31">
@@ -24870,10 +24870,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05673785255835639</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L31" t="n">
-        <v>164.6127396470317</v>
+        <v>78.49601170672339</v>
       </c>
       <c r="M31" t="n">
         <v>247.6210768183003</v>
@@ -25001,13 +25001,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C33" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D33" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>342.6720972219126</v>
@@ -25067,10 +25067,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>213.7138580771465</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.0949883285228</v>
       </c>
     </row>
     <row r="34">
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>342.6720972219126</v>
@@ -25256,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25304,10 +25304,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>23.75368149682242</v>
+        <v>284.40450898196</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="37">
@@ -25344,10 +25344,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05673785255832797</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L37" t="n">
-        <v>164.6127396470317</v>
+        <v>78.49601170672337</v>
       </c>
       <c r="M37" t="n">
         <v>247.6210768183003</v>
@@ -25475,10 +25475,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D39" t="n">
         <v>347.9376868977026</v>
@@ -25490,13 +25490,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G39" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>213.7138580771467</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25544,7 +25544,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.19610416786662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25712,13 +25712,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.65274836867388</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D42" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>342.6720972219126</v>
@@ -25727,13 +25727,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25778,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>249.5470116212803</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25818,10 +25818,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.05673785255832797</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L43" t="n">
-        <v>164.6127396470317</v>
+        <v>78.49601170672337</v>
       </c>
       <c r="M43" t="n">
         <v>247.6210768183003</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>249.098326182899</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
         <v>342.6720972219126</v>
@@ -25964,7 +25964,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>321.0233787305839</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26015,7 +26015,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>419.8627394453875</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>399.3913927661343</v>
@@ -26055,13 +26055,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05673785255832797</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L46" t="n">
         <v>164.6127396470317</v>
       </c>
       <c r="M46" t="n">
-        <v>247.6210768183003</v>
+        <v>161.504348877992</v>
       </c>
       <c r="N46" t="n">
         <v>304.6661209913</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15961.27270175422</v>
+        <v>1353830.318357539</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31922.54540350844</v>
+        <v>2707660.636715078</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47883.81810526263</v>
+        <v>4061490.955072618</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67184.90268414962</v>
+        <v>5169275.347392689</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86485.9872630366</v>
+        <v>6277059.739712759</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>105787.0718419236</v>
+        <v>7384844.132032826</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125088.1564208105</v>
+        <v>8492628.52435289</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144389.2409996975</v>
+        <v>9600412.916672952</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>163690.3255785845</v>
+        <v>10708197.30899302</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182991.4101574715</v>
+        <v>11815981.70131308</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>202292.4947363585</v>
+        <v>12923766.09363315</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>221593.5793152455</v>
+        <v>14031550.48595321</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240894.6638941327</v>
+        <v>15139334.87827328</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>260195.74847302</v>
+        <v>16247119.27059336</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>279496.8330519073</v>
+        <v>17354903.66291344</v>
       </c>
     </row>
   </sheetData>
@@ -26325,40 +26325,40 @@
         <v>850079.5022245017</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245017</v>
+        <v>850079.502224502</v>
       </c>
       <c r="E2" t="n">
-        <v>695585.5486660913</v>
+        <v>695585.5486660914</v>
       </c>
       <c r="F2" t="n">
-        <v>695585.5486660913</v>
+        <v>695585.5486660914</v>
       </c>
       <c r="G2" t="n">
+        <v>695585.5486660914</v>
+      </c>
+      <c r="H2" t="n">
         <v>695585.5486660911</v>
       </c>
-      <c r="H2" t="n">
-        <v>695585.5486660912</v>
-      </c>
       <c r="I2" t="n">
-        <v>695585.5486660911</v>
+        <v>695585.5486660909</v>
       </c>
       <c r="J2" t="n">
-        <v>695585.5486660913</v>
+        <v>695585.5486660914</v>
       </c>
       <c r="K2" t="n">
         <v>695585.5486660913</v>
       </c>
       <c r="L2" t="n">
-        <v>695585.5486660914</v>
+        <v>695585.5486660912</v>
       </c>
       <c r="M2" t="n">
         <v>695585.5486660913</v>
       </c>
       <c r="N2" t="n">
-        <v>695585.5486660914</v>
+        <v>695585.5486660913</v>
       </c>
       <c r="O2" t="n">
-        <v>695585.5486660914</v>
+        <v>695585.5486660911</v>
       </c>
       <c r="P2" t="n">
         <v>695585.5486660913</v>
@@ -26432,16 +26432,16 @@
         <v>131325.2342200931</v>
       </c>
       <c r="E4" t="n">
+        <v>1113.692596006656</v>
+      </c>
+      <c r="F4" t="n">
         <v>1113.692596006615</v>
       </c>
-      <c r="F4" t="n">
-        <v>1113.692596006659</v>
-      </c>
       <c r="G4" t="n">
-        <v>1113.692596006646</v>
+        <v>1113.692596006615</v>
       </c>
       <c r="H4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006651</v>
       </c>
       <c r="I4" t="n">
         <v>1113.692596006615</v>
@@ -26462,7 +26462,7 @@
         <v>1113.692596006605</v>
       </c>
       <c r="O4" t="n">
-        <v>1113.692596006605</v>
+        <v>1113.692596006615</v>
       </c>
       <c r="P4" t="n">
         <v>1113.69259600661</v>
@@ -26533,40 +26533,40 @@
         <v>555073.5545624944</v>
       </c>
       <c r="D6" t="n">
-        <v>555600.6680044086</v>
+        <v>555600.6680044089</v>
       </c>
       <c r="E6" t="n">
         <v>564945.8560700847</v>
       </c>
       <c r="F6" t="n">
-        <v>564945.8560700846</v>
+        <v>564945.8560700847</v>
       </c>
       <c r="G6" t="n">
+        <v>564945.8560700847</v>
+      </c>
+      <c r="H6" t="n">
         <v>564945.8560700844</v>
       </c>
-      <c r="H6" t="n">
-        <v>564945.8560700845</v>
-      </c>
       <c r="I6" t="n">
-        <v>564945.8560700845</v>
+        <v>564945.8560700843</v>
       </c>
       <c r="J6" t="n">
-        <v>-63022.14392991533</v>
+        <v>-63022.14392991521</v>
       </c>
       <c r="K6" t="n">
         <v>564945.8560700846</v>
       </c>
       <c r="L6" t="n">
-        <v>564945.8560700847</v>
+        <v>564945.8560700845</v>
       </c>
       <c r="M6" t="n">
         <v>564945.8560700846</v>
       </c>
       <c r="N6" t="n">
-        <v>564945.8560700848</v>
+        <v>564945.8560700847</v>
       </c>
       <c r="O6" t="n">
-        <v>564945.8560700848</v>
+        <v>564945.8560700844</v>
       </c>
       <c r="P6" t="n">
         <v>564945.8560700847</v>
@@ -27587,16 +27587,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>190.2572138763394</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>339.6362423378769</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>156.3859552990595</v>
       </c>
       <c r="I3" t="n">
         <v>145.6010009740521</v>
@@ -27653,7 +27653,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27693,10 +27693,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>86.17346579286669</v>
+        <v>260.2189921060746</v>
       </c>
       <c r="L4" t="n">
-        <v>338.6582659602396</v>
+        <v>164.6127396470317</v>
       </c>
       <c r="M4" t="n">
         <v>400</v>
@@ -27830,22 +27830,22 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>246.8887882867784</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>244.28142194549</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27881,7 +27881,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27890,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>108.3987069802622</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>312.1045333535693</v>
+        <v>153.9587076488894</v>
       </c>
       <c r="I9" t="n">
         <v>145.6010009740521</v>
@@ -28118,10 +28118,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="10">
@@ -28167,13 +28167,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>260.2189921060746</v>
+        <v>400</v>
       </c>
       <c r="L10" t="n">
         <v>164.6127396470317</v>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>260.2189921060746</v>
       </c>
       <c r="N10" t="n">
         <v>400</v>
@@ -31180,13 +31180,13 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J2" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>612.7184565454758</v>
+        <v>250.8638154877877</v>
       </c>
       <c r="M2" t="n">
         <v>681.7673411142738</v>
@@ -31423,13 +31423,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>612.7184565454758</v>
+        <v>250.8638154877877</v>
       </c>
       <c r="M5" t="n">
-        <v>491.7820712007814</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O5" t="n">
         <v>654.1904969363086</v>
@@ -31657,7 +31657,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L8" t="n">
         <v>612.7184565454758</v>
@@ -32128,7 +32128,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -32365,7 +32365,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K17" t="n">
         <v>493.8934167691431</v>
@@ -32374,13 +32374,13 @@
         <v>612.7184565454758</v>
       </c>
       <c r="M17" t="n">
-        <v>544.2621276423173</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>654.1904969363086</v>
+        <v>554.6184982637997</v>
       </c>
       <c r="P17" t="n">
         <v>558.3364539030787</v>
@@ -32605,19 +32605,19 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K20" t="n">
-        <v>493.8934167691431</v>
+        <v>282.9903388733868</v>
       </c>
       <c r="L20" t="n">
         <v>612.7184565454758</v>
       </c>
       <c r="M20" t="n">
-        <v>681.7673411142738</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>180.9676128740239</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P20" t="n">
         <v>558.3364539030787</v>
@@ -32851,10 +32851,10 @@
         <v>681.7673411142738</v>
       </c>
       <c r="N23" t="n">
-        <v>477.2489580698352</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P23" t="n">
         <v>558.3364539030787</v>
@@ -33082,7 +33082,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>250.8638154877877</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M26" t="n">
         <v>681.7673411142738</v>
@@ -33313,7 +33313,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J29" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -33550,13 +33550,13 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>250.8638154877887</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>612.7184565454758</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>681.7673411142738</v>
@@ -33787,7 +33787,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -34024,7 +34024,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -34261,7 +34261,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J41" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -34270,10 +34270,10 @@
         <v>612.7184565454758</v>
       </c>
       <c r="M41" t="n">
-        <v>681.7673411142738</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>692.7990494593133</v>
+        <v>491.782071200782</v>
       </c>
       <c r="O41" t="n">
         <v>654.1904969363086</v>
@@ -34828,13 +34828,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>646.1255458288542</v>
+        <v>250.8638154877877</v>
       </c>
       <c r="M2" t="n">
         <v>1197.776259022289</v>
@@ -34989,10 +34989,10 @@
         <v>87.86524634252459</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>174.0455263132079</v>
       </c>
       <c r="L4" t="n">
-        <v>174.0455263132079</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>152.3789231816997</v>
@@ -35065,19 +35065,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1528.90986520166</v>
+        <v>250.8638154877877</v>
       </c>
       <c r="M5" t="n">
-        <v>1007.790989108797</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N5" t="n">
-        <v>619.4144644189528</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O5" t="n">
         <v>1616.859733322123</v>
@@ -35302,16 +35302,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>698.4164044926453</v>
       </c>
       <c r="L8" t="n">
-        <v>646.1255458288542</v>
+        <v>612.7184565454759</v>
       </c>
       <c r="M8" t="n">
-        <v>1197.776259022289</v>
+        <v>137.5052134719565</v>
       </c>
       <c r="N8" t="n">
         <v>1312.213513878266</v>
@@ -35463,13 +35463,13 @@
         <v>87.86524634252459</v>
       </c>
       <c r="K10" t="n">
-        <v>174.0455263132079</v>
+        <v>313.8265342071333</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>152.3789231816997</v>
+        <v>12.59791528777425</v>
       </c>
       <c r="N10" t="n">
         <v>95.33387900869997</v>
@@ -35545,10 +35545,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1528.90986520166</v>
+        <v>646.1255458288542</v>
       </c>
       <c r="M11" t="n">
-        <v>314.991939649484</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N11" t="n">
         <v>1312.213513878266</v>
@@ -36013,7 +36013,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>1210.768534292243</v>
@@ -36022,13 +36022,13 @@
         <v>1528.90986520166</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N17" t="n">
-        <v>21.17518889444036</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1616.859733322123</v>
+        <v>1517.287734649614</v>
       </c>
       <c r="P17" t="n">
         <v>1428.627326536521</v>
@@ -36253,19 +36253,19 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K20" t="n">
-        <v>1210.768534292243</v>
+        <v>282.9903388733868</v>
       </c>
       <c r="L20" t="n">
         <v>1528.90986520166</v>
       </c>
       <c r="M20" t="n">
-        <v>1197.776259022289</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O20" t="n">
-        <v>110.7197432999314</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P20" t="n">
         <v>1428.627326536521</v>
@@ -36487,7 +36487,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>294.4959136492529</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K23" t="n">
         <v>1210.768534292243</v>
@@ -36496,16 +36496,16 @@
         <v>1528.90986520166</v>
       </c>
       <c r="M23" t="n">
-        <v>776.1315025225632</v>
+        <v>137.5052134719565</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>215.5500913894781</v>
       </c>
       <c r="O23" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P23" t="n">
-        <v>1428.627326536521</v>
+        <v>767.2082906751831</v>
       </c>
       <c r="Q23" t="n">
         <v>862.3168133311397</v>
@@ -36724,13 +36724,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>250.8638154877877</v>
+        <v>646.1255458288542</v>
       </c>
       <c r="M26" t="n">
         <v>1197.776259022289</v>
@@ -37198,13 +37198,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>646.125545828855</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>646.1255458288542</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1197.776259022289</v>
@@ -37441,10 +37441,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>646.1255458288551</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M35" t="n">
-        <v>1197.776259022289</v>
+        <v>314.991939649484</v>
       </c>
       <c r="N35" t="n">
         <v>1312.213513878266</v>
@@ -37915,13 +37915,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>646.1255458288551</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M41" t="n">
-        <v>1197.776259022289</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N41" t="n">
-        <v>1312.213513878266</v>
+        <v>1111.196535619735</v>
       </c>
       <c r="O41" t="n">
         <v>1616.859733322123</v>
